--- a/Project Development Phase/Sprint 3/flask_app/precautions - veg.xlsx
+++ b/Project Development Phase/Sprint 3/flask_app/precautions - veg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\flask_app_working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F006A947-B49C-4C24-9E42-FE042134EB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5745065E-82A6-4D62-9E4E-5BB5D7FD34CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>plant</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Seed treatment with hot water, soaking seeds for 30 minutes in water pre-heated to 125 F/51 C, is effective in reducing bacterial populations on the surface and inside the seeds.</t>
   </si>
   <si>
-    <t>It is healthy.</t>
-  </si>
-  <si>
     <t>Early blight can be minimized by maintaining optimum growing conditions, including proper fertilization, irrigation, and management of other pests. Grow later maturing, longer season varieties. Fungicide application is justified only when the disease is initiated early enough to cause economic loss.</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>disease</t>
+  </si>
+  <si>
+    <t>healthy!!</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -484,6 +484,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -493,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -504,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -515,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -526,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
